--- a/Output_testing/R1_201907/Country/HKD/MN/BELARUS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BELARUS_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.012906</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.09592000000000001</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>643.2202076553541</v>
@@ -564,7 +572,7 @@
       </c>
       <c r="J7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/Output_testing/R1_201907/Country/HKD/MN/BELARUS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BELARUS_201907_HKD_MN.xlsx
@@ -820,136 +820,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>346.339855</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>75.83268373352936</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>541.874119</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>79.94650905562939</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>593.706181</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>73.00469064825415</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>315.367163</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>74.17854467070875</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>27.91716404678368</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>29.876613</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.541620064656007</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>47.754481</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>7.045555256927452</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>91.46360199999999</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.24676175400141</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>42.492269</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.994745946889443</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-8.975061655445494</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>22.361848</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.896228148739209</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>24.479049</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.611566679293084</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>27.813195</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.420031257708212</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>30.44097</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.160120386296226</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>55.45598654745962</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>4.077293</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.892741814417902</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>5.692716</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.8398865258318903</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>11.513219</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.415715413379875</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>6.820719</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.604323684859517</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>55.77041130929273</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3.8915</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.8520615935149292</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2.22661</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.3285074711758931</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>3.848192</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.4731904020973743</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.156996</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.7425673826772156</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>5.396072063361923</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>9.999238</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.189378559479644</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>9.25549</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.365527692049244</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>7.755471</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.9536463983461649</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.930533</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.6893002777511308</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-43.30047680850191</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.560788</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.7796506995885488</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>4.634183</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.6837136895533181</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>10.884108</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.33835719241432</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>2.223185</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.5229226348900174</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-45.58841489456216</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2.736795</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.5992336910763691</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.579125</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.2329794442765604</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.904083</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.234134315646614</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.191448</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5154576710370298</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>65.3122034455758</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1034304026029456</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.860734</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.1269901553011579</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.936447</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.2381139336525449</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.873667</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.4407113598492588</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>70.15392858440191</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.713626</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.8131152736164646</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>6.362318</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.9386776296688085</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>9.839695000000001</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.209931633755676</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.795341</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4222880445154492</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-76.83636302175536</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>29.68587</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>6.499856018778627</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>33.077023</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>4.880086400293204</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>52.57969</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>6.465427050743646</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>15.853773</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.729017940525964</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-36.76966703292977</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -981,136 +1280,625 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>92.79608006672227</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>7.203919933277732</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WOOD, SIMPLY WORKED, AND RAILWAY SLEEPERS OF WOOD</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ORGANO-INORGANIC COMPOUNDS, HETEROCYCLIC COMPOUNDS, NUCLEIC ACIDS AND THEIR SALTS AND SULPHONAMIDES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1142,136 +1930,435 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>346.339855</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>75.83482669476265</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>541.874119</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>79.95782449013333</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>593.706181</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>73.00469064825415</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>315.367163</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>74.17854467070875</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>27.91716404678368</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>29.876613</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.54180492476528</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>47.754481</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>7.046552467687439</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>91.46360199999999</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.24676175400141</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>42.492269</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.994745946889443</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-8.975061655445494</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>22.361848</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.89636651160065</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>24.479049</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.612077851659444</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>27.813195</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.420031257708212</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>30.44097</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.160120386296226</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>55.45598654745962</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4.077293</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.892767042472686</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.692716</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.8400054013285951</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>11.513219</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.415715413379875</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>6.820719</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.604323684859517</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>55.77041130929273</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3.8915</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.852085671984441</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.22661</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.3285539673246062</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3.848192</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.4731904020973743</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3.156996</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.7425673826772156</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>5.396072063361923</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>9.999238</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.189440429284944</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>9.25549</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.365720965518533</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>7.755471</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.9536463983461649</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.930533</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.6893002777511308</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-43.30047680850191</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.560788</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.7796727317934303</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>4.634183</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.6838104607265061</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>10.884108</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.33835719241432</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>2.223185</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.5229226348900174</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-45.58841489456216</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2.736795</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.5992506248641034</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.579125</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.2330124196206201</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.904083</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.234134315646614</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.191448</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.5154576710370298</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>65.3122034455758</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1034333254500902</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.860734</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.1270081291789661</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.936447</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.2381139336525449</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.873667</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.4407113598492588</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>70.15392858440191</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3.713626</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.813138251499137</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>6.362318</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.9388104878181425</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>9.839695000000001</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.209931633755676</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.795341</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4222880445154492</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-76.83636302175536</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>29.672964</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>6.497213791522583</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>32.981103</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>4.866623359003809</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>52.57969</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.465427050743646</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>15.853773</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.729017940525964</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-36.76966703292977</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1303,136 +2390,523 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>8.64109</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>21.27076231614404</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>16.445176</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>28.7732644312736</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>34.005461</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>59.54826550450855</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>16.917448</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>59.63323762963858</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>11.91654370748911</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>20.896208</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>51.43775538464565</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>22.498021</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>39.3636107885587</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>15.187524</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>26.59545510963947</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>8.883611</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>31.3143262371648</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>5.735975563017548</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3.391503</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>8.348466941958648</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3.49787</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.120040214602689</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>4.625074</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.099144267739801</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.58712</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.594526083765825</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-52.00380311616015</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.192950414920654</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>0.629101</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.548584477635175</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.589706</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.531073157092137</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.5011442638172517</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.171733712656057</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>49.74277888894895</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MACHINE-TOOLS WORKING BY REMOVING METAL OR OTHER MATERIAL</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.5126694097629049</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.2116395421937645</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.2259022640143851</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.2696378838724123</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2750228490310261</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.0774114130184602</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.1345452097681577</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.1201410306170867</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>46.58724355941679</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1190130451170583</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.598016</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.472066162631241</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>6.27064</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>15.43570232576046</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>11.9416</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>20.89359302281088</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>2.924638</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.121445644526768</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-99.44980880856097</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
